--- a/Spring_2022/chemRxnEng/HW3stuff.xlsx
+++ b/Spring_2022/chemRxnEng/HW3stuff.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshl\school\Spring_2022\chemRxnEng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E2C844F-2267-43C1-B8B1-7ACFB78654C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00196EA1-FA3B-4065-8810-952B2C0496F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{709B5A04-B194-4119-BB31-8EB4959CA3C9}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" activeTab="2" xr2:uid="{709B5A04-B194-4119-BB31-8EB4959CA3C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>ca0</t>
   </si>
@@ -60,6 +62,36 @@
   </si>
   <si>
     <t>ra2</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>kf</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>benz</t>
+  </si>
+  <si>
+    <t>prop</t>
   </si>
 </sst>
 </file>
@@ -95,9 +127,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,6 +146,2078 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$12:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.4720752498530274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5422740524781346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4708994708994707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9523809523809534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.994708994708994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.8095238095238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104.99999999999984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0C2-4C4D-B491-EA83CCC632E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$12:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$12:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.0969364426154531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4708994708994698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9757045675413023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6907701352145805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7724867724867721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.039976484420926</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.740740740740726</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.95238095238085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D0C2-4C4D-B491-EA83CCC632E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2119730736"/>
+        <c:axId val="2119714928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2119730736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2119714928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2119714928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2119730736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4284776902887139E-2"/>
+                  <c:y val="-0.26824803149606297"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>4.36E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06C1-4859-97B9-43B44383B161}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1809577232"/>
+        <c:axId val="1809577648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1809577232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1809577648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1809577648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1809577232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292099</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>568324</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F130C58-AD32-4EB5-8B77-118A03D3E494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582612</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB164B20-958D-45AD-BD48-B726CBA8FAC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,10 +2517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E851891E-D1C5-43CF-B428-C4FE5D5D1FBF}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -423,6 +2528,7 @@
     <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.75">
@@ -467,16 +2573,15 @@
         <v>0.25</v>
       </c>
       <c r="D2">
-        <f>3*C2/(1+C2)</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
         <f>2*A2*B2^2*((1-D2)^2/(1-(1/3)*D2)^2)</f>
-        <v>0.11666666666666667</v>
+        <v>9.5238095238095195E-3</v>
       </c>
       <c r="F2">
         <f>A2*4.5*B2^2*(1-C2)^2*(1-D2)^2/(1.5-D2)^2</f>
-        <v>0.1166666666666667</v>
+        <v>1.6406249999999994E-2</v>
       </c>
       <c r="G2">
         <f>B2*H2</f>
@@ -488,15 +2593,566 @@
       </c>
       <c r="I2">
         <f>G2*D2/E2</f>
-        <v>2.5714285714285712</v>
+        <v>47.250000000000021</v>
       </c>
       <c r="J2">
         <f>G2*D2/F2</f>
-        <v>2.5714285714285707</v>
+        <v>27.428571428571441</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <f>D3*B2</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="D3">
+        <f>3*C2/(1+C2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="G3">
+        <f>B3*H2</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="I4">
+        <f>I2+J2</f>
+        <v>74.678571428571459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="E5">
+        <f>G2*D3/E2</f>
+        <v>31.500000000000014</v>
+      </c>
+      <c r="F5">
+        <f>G2*0.3/F2</f>
+        <v>9.1428571428571459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="E6">
+        <f>E5+F5</f>
+        <v>40.64285714285716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G10">
+        <f>G2*D3/670</f>
+        <v>4.4776119402985075E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <f>1/D12</f>
+        <v>2.4720752498530274</v>
+      </c>
+      <c r="C12">
+        <f>1/E12</f>
+        <v>4.0969364426154531</v>
+      </c>
+      <c r="D12">
+        <f>2*A$2*B$2^2*((1-A12)^2/(1-(1/3)*A12)^2)</f>
+        <v>0.4045184304399525</v>
+      </c>
+      <c r="E12">
+        <f>A$2*4.5*B$2^2*(1-C$2)^2*(1-A12)^2/(1.5-A12)^2</f>
+        <v>0.24408482142857152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <f>A12+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:C20" si="0">1/D13</f>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>4.4708994708994698</v>
+      </c>
+      <c r="D13">
+        <f>2*A$2*B$2^2*((1-A13)^2/(1-(1/3)*A13)^2)</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="E13">
+        <f>A$2*4.5*B$2^2*(1-C$2)^2*(1-A13)^2/(1.5-A13)^2</f>
+        <v>0.22366863905325449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <f t="shared" ref="A14:A21" si="1">A13+0.1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>3.5422740524781346</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>4.9757045675413023</v>
+      </c>
+      <c r="D14">
+        <f>2*A$2*B$2^2*((1-A14)^2/(1-(1/3)*A14)^2)</f>
+        <v>0.28230452674897116</v>
+      </c>
+      <c r="E14">
+        <f>A$2*4.5*B$2^2*(1-C$2)^2*(1-A14)^2/(1.5-A14)^2</f>
+        <v>0.20097656249999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>4.4708994708994707</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>5.6907701352145805</v>
+      </c>
+      <c r="D15">
+        <f>2*A$2*B$2^2*((1-A15)^2/(1-(1/3)*A15)^2)</f>
+        <v>0.22366863905325443</v>
+      </c>
+      <c r="E15">
+        <f>A$2*4.5*B$2^2*(1-C$2)^2*(1-A15)^2/(1.5-A15)^2</f>
+        <v>0.17572314049586774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>5.9523809523809534</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>6.7724867724867721</v>
+      </c>
+      <c r="D16">
+        <f>2*A$2*B$2^2*((1-A16)^2/(1-(1/3)*A16)^2)</f>
+        <v>0.16799999999999998</v>
+      </c>
+      <c r="E16">
+        <f>A$2*4.5*B$2^2*(1-C$2)^2*(1-A16)^2/(1.5-A16)^2</f>
+        <v>0.14765625000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285694</v>
+      </c>
+      <c r="D17">
+        <f>2*A$2*B$2^2*((1-A17)^2/(1-(1/3)*A17)^2)</f>
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="E17">
+        <f>A$2*4.5*B$2^2*(1-C$2)^2*(1-A17)^2/(1.5-A17)^2</f>
+        <v>0.1166666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>13.994708994708994</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>12.039976484420926</v>
+      </c>
+      <c r="D18">
+        <f>2*A$2*B$2^2*((1-A18)^2/(1-(1/3)*A18)^2)</f>
+        <v>7.1455576559546319E-2</v>
+      </c>
+      <c r="E18">
+        <f>A$2*4.5*B$2^2*(1-C$2)^2*(1-A18)^2/(1.5-A18)^2</f>
+        <v>8.3056640625000025E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A19">
+        <f>A18+0.1</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>28.8095238095238</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>20.740740740740726</v>
+      </c>
+      <c r="D19">
+        <f>2*A$2*B$2^2*((1-A19)^2/(1-(1/3)*A19)^2)</f>
+        <v>3.4710743801652906E-2</v>
+      </c>
+      <c r="E19">
+        <f>A$2*4.5*B$2^2*(1-C$2)^2*(1-A19)^2/(1.5-A19)^2</f>
+        <v>4.8214285714285744E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>104.99999999999984</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>60.95238095238085</v>
+      </c>
+      <c r="D20">
+        <f>2*A$2*B$2^2*((1-A20)^2/(1-(1/3)*A20)^2)</f>
+        <v>9.5238095238095385E-3</v>
+      </c>
+      <c r="E20">
+        <f>A$2*4.5*B$2^2*(1-C$2)^2*(1-A20)^2/(1.5-A20)^2</f>
+        <v>1.6406250000000028E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="C22">
+        <f>B20*A20</f>
+        <v>94.499999999999844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B23">
+        <f>C20*0.1</f>
+        <v>6.0952380952380851</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2B98A9-2E31-404C-9FF5-096E7C314604}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="11.6796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6796875" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <f>A2+273</f>
+        <v>303</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.7499999999999999E-7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>909</v>
+      </c>
+      <c r="E2">
+        <f>C2/EXP(-F$9/H$2/B2)</f>
+        <v>2422291931974.2588</v>
+      </c>
+      <c r="F2" s="1" t="e">
+        <f>-H$2*LN(C2/C$2)/(1/B$2-1/B2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" s="1" t="e">
+        <f>H$2*LN(D2/D$2)/(1/B$2-1/B2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H2">
+        <v>8.3140000000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B6" si="0">A3+273</f>
+        <v>353</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9.0099999999999995E-5</v>
+      </c>
+      <c r="D3">
+        <v>26.3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="1">C3/EXP(-F$9/H$2/B3)</f>
+        <v>2424916188786.8169</v>
+      </c>
+      <c r="F3" s="2">
+        <f>-H$2*LN(C$2/C3)/(1/B$2-1/B3)</f>
+        <v>111.04846409726004</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G6" si="2">H$2*LN(D3/D$2)/(1/B$2-1/B3)</f>
+        <v>-63.008778833021644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>130</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>403</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.8300000000000002E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.83</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2421404819196.7754</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F3:F6" si="3">-H$2*LN(C$2/C4)/(1/B$2-1/B4)</f>
+        <v>111.02548781538682</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>-63.024794854818417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>180</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>453</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2420870420912.8369</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="3"/>
+        <v>111.02474058330601</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>-63.008033065564057</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>230</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>503</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7.13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.36E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2418062117812.6152</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="3"/>
+        <v>111.01813351218745</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>-63.008234827071959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="E9">
+        <f>AVERAGE(E2:E6)</f>
+        <v>2421509095736.6606</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(F3:F6)</f>
+        <v>111.02920650203508</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(G3:G6)</f>
+        <v>-63.012460395119021</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.75">
+      <c r="I19">
+        <f>3E+51*373^-19.61</f>
+        <v>11.115040844732974</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA2AE28-2C4C-4A68-B3D3-073A984A124A}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A1">
+        <f>14.4/3/100*150</f>
+        <v>7.2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <f>2*A1/100*150</f>
+        <v>21.6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <f>A1*8.314*373/150</f>
+        <v>148.85385600000001</v>
+      </c>
+      <c r="C5">
+        <f>11.11*A5*A6</f>
+        <v>738508.48996747087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <f>A2*8.314*373/150</f>
+        <v>446.56156799999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="J7">
+        <f>4*PI()*J1^2</f>
+        <v>12.566370614359172</v>
+      </c>
+      <c r="K7">
+        <f>4*PI()*K1^2</f>
+        <v>50.26548245743669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="J10">
+        <f>AVERAGE(J7:K7)</f>
+        <v>31.415926535897931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="J11">
+        <f>4*PI()*2</f>
+        <v>25.132741228718345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="J13">
+        <f>LN(2)-LN(1)</f>
+        <v>0.69314718055994529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="J14">
+        <f>LN(2)</f>
+        <v>0.69314718055994529</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
